--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="156">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,268 +40,295 @@
     <t>name</t>
   </si>
   <si>
+    <t>garbage</t>
+  </si>
+  <si>
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
     <t>thin</t>
   </si>
   <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
     <t>ripped</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>inches</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>pool</t>
   </si>
   <si>
     <t>loose</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>worst</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>however</t>
+    <t>instead</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>tiny</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>un</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>short</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>though</t>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
@@ -310,100 +337,103 @@
     <t>get</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>got</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>expansion</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>grandchildren</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoys</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>highly</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>birthday</t>
   </si>
   <si>
     <t>sturdy</t>
@@ -412,15 +442,6 @@
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
@@ -430,18 +451,21 @@
     <t>game</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
     <t>play</t>
   </si>
   <si>
@@ -452,9 +476,6 @@
   </si>
   <si>
     <t>kids</t>
-  </si>
-  <si>
-    <t>son</t>
   </si>
   <si>
     <t>good</t>
@@ -818,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,10 +847,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -887,13 +908,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -905,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -929,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -937,13 +958,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -955,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K4">
         <v>0.8615384615384616</v>
@@ -987,38 +1008,38 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8095238095238095</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5">
+        <v>0.85</v>
+      </c>
+      <c r="L5">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>17</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L5">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -1029,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1037,13 +1058,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1058,16 +1079,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K6">
-        <v>0.85</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1079,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1087,13 +1108,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1105,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K7">
-        <v>0.8387096774193549</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L7">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M7">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1129,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1137,13 +1158,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7323943661971831</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1155,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K8">
-        <v>0.7083333333333334</v>
+        <v>0.765625</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1179,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1187,13 +1208,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7272727272727273</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1205,31 +1226,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9">
+        <v>0.75</v>
+      </c>
+      <c r="L9">
+        <v>18</v>
+      </c>
+      <c r="M9">
+        <v>18</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>6</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9">
-        <v>0.703125</v>
-      </c>
-      <c r="L9">
-        <v>45</v>
-      </c>
-      <c r="M9">
-        <v>45</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1237,13 +1258,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6956521739130435</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1255,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K10">
-        <v>0.6792452830188679</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1279,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1287,13 +1308,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6774193548387096</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C11">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1305,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K11">
-        <v>0.5652797704447633</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L11">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1329,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>303</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1337,13 +1358,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.668918918918919</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C12">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1355,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K12">
-        <v>0.5228215767634855</v>
+        <v>0.5681492109038737</v>
       </c>
       <c r="L12">
-        <v>252</v>
+        <v>396</v>
       </c>
       <c r="M12">
-        <v>252</v>
+        <v>396</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1379,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>230</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1387,13 +1408,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.65625</v>
+        <v>0.734375</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1405,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K13">
-        <v>0.5217391304347826</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1429,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1437,13 +1458,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6456310679611651</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C14">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1455,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K14">
-        <v>0.4770491803278689</v>
+        <v>0.4778688524590164</v>
       </c>
       <c r="L14">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M14">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1479,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1487,13 +1508,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.631578947368421</v>
+        <v>0.7150537634408602</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1505,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K15">
-        <v>0.4716981132075472</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1529,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1537,13 +1558,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1555,31 +1576,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="L16">
+        <v>72</v>
+      </c>
+      <c r="M16">
+        <v>72</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>117</v>
-      </c>
-      <c r="K16">
-        <v>0.382262996941896</v>
-      </c>
-      <c r="L16">
-        <v>125</v>
-      </c>
-      <c r="M16">
-        <v>125</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1587,13 +1608,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1605,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K17">
-        <v>0.3544973544973545</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="L17">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M17">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1629,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1637,13 +1658,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1655,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K18">
-        <v>0.3433734939759036</v>
+        <v>0.3700305810397553</v>
       </c>
       <c r="L18">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="M18">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1679,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>109</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1687,13 +1708,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5833333333333334</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1705,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K19">
-        <v>0.3404255319148936</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1729,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1737,13 +1758,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5798319327731093</v>
+        <v>0.64</v>
       </c>
       <c r="C20">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1755,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K20">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1779,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1787,13 +1808,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5777777777777777</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1805,19 +1826,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K21">
-        <v>0.3</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1829,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1837,13 +1858,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1855,19 +1876,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K22">
-        <v>0.2727272727272727</v>
+        <v>0.28125</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1879,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1887,13 +1908,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5555555555555556</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1905,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K23">
-        <v>0.2711864406779661</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1929,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1937,13 +1958,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5483870967741935</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1955,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K24">
-        <v>0.2578125</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1979,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>95</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1987,13 +2008,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5014492753623189</v>
+        <v>0.6</v>
       </c>
       <c r="C25">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2005,31 +2026,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K25">
-        <v>0.2447552447552448</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2037,13 +2058,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2055,19 +2076,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K26">
-        <v>0.24</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2079,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2087,13 +2108,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4761904761904762</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2105,31 +2126,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K27">
-        <v>0.216</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2137,13 +2158,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4578313253012048</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C28">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="D28">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2155,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K28">
-        <v>0.2043010752688172</v>
+        <v>0.2311827956989247</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2179,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2187,13 +2208,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4409448818897638</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2205,19 +2226,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K29">
-        <v>0.1954022988505747</v>
+        <v>0.224</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2229,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2237,13 +2258,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4363636363636363</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2255,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K30">
-        <v>0.1921052631578947</v>
+        <v>0.2088353413654618</v>
       </c>
       <c r="L30">
-        <v>219</v>
+        <v>52</v>
       </c>
       <c r="M30">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2276,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>921</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2287,37 +2308,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4315789473684211</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K31">
-        <v>0.1686746987951807</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2329,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>207</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2337,38 +2358,38 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>23</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="L32">
         <v>21</v>
       </c>
-      <c r="D32">
+      <c r="M32">
         <v>21</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>28</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K32">
-        <v>0.1452991452991453</v>
-      </c>
-      <c r="L32">
-        <v>17</v>
-      </c>
-      <c r="M32">
-        <v>17</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -2379,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2387,13 +2408,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4210526315789473</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2405,31 +2426,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K33">
-        <v>0.1379310344827586</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2437,13 +2458,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4126984126984127</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2455,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K34">
-        <v>0.1298701298701299</v>
+        <v>0.168273444347064</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2479,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>134</v>
+        <v>949</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2487,13 +2508,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4126984126984127</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2505,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K35">
-        <v>0.1096256684491979</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2529,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>333</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2537,13 +2558,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4074074074074074</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2555,31 +2576,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K36">
-        <v>0.1065627030539311</v>
+        <v>0.1149732620320856</v>
       </c>
       <c r="L36">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="M36">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="N36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1375</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2587,13 +2608,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4</v>
+        <v>0.421875</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2605,31 +2626,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K37">
-        <v>0.09192200557103064</v>
+        <v>0.1124106562703054</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>326</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2637,13 +2658,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3933649289099526</v>
+        <v>0.421875</v>
       </c>
       <c r="C38">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2655,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K38">
-        <v>0.08171206225680934</v>
+        <v>0.1050583657587549</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2679,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2687,13 +2708,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.390625</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2705,31 +2726,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K39">
-        <v>0.07241379310344828</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>269</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2737,13 +2758,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3828125</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C40">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2755,19 +2776,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K40">
-        <v>0.06172839506172839</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2779,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2787,13 +2808,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3620689655172414</v>
+        <v>0.4028436018957346</v>
       </c>
       <c r="C41">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D41">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2805,31 +2826,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K41">
-        <v>0.06133333333333333</v>
+        <v>0.07931034482758621</v>
       </c>
       <c r="L41">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>704</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2837,13 +2858,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.360655737704918</v>
+        <v>0.4</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2855,31 +2876,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K42">
-        <v>0.04370179948586118</v>
+        <v>0.06963788300835655</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N42">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>372</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2887,13 +2908,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3595505617977528</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C43">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2905,31 +2926,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K43">
-        <v>0.04233870967741935</v>
+        <v>0.06933333333333333</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="N43">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.16</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>475</v>
+        <v>698</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2937,13 +2958,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3541666666666667</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2955,31 +2976,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K44">
-        <v>0.03558718861209965</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N44">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="O44">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>542</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2987,13 +3008,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3518518518518519</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3005,31 +3026,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K45">
-        <v>0.03472222222222222</v>
+        <v>0.04435483870967742</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>417</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3037,13 +3058,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3488372093023256</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3055,31 +3076,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K46">
-        <v>0.02853067047075606</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N46">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="O46">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>681</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3087,49 +3108,49 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3163265306122449</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>31</v>
       </c>
-      <c r="D47">
-        <v>31</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>67</v>
-      </c>
       <c r="J47" s="1" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="K47">
-        <v>0.02002670226969292</v>
+        <v>0.03129445234708392</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="N47">
-        <v>0.25</v>
+        <v>0.92</v>
       </c>
       <c r="O47">
-        <v>0.75</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>734</v>
+        <v>681</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3137,13 +3158,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3134328358208955</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3155,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3163,13 +3184,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3035714285714285</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3181,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3189,13 +3210,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.297029702970297</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="C50">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3207,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3215,13 +3236,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2577319587628866</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3233,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>144</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3241,7 +3262,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2463768115942029</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -3259,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3267,13 +3288,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2393162393162393</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D53">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3285,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3293,13 +3314,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.217948717948718</v>
+        <v>0.301980198019802</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3311,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>61</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3319,13 +3340,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.213768115942029</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C55">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3337,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>217</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3345,13 +3366,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2087912087912088</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3363,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3371,13 +3392,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2061855670103093</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3389,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3397,25 +3418,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.205607476635514</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C58">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E58">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3423,13 +3444,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2027027027027027</v>
+        <v>0.225</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D59">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3441,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>59</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3449,13 +3470,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2025316455696203</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C60">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3467,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>252</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3475,13 +3496,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2</v>
+        <v>0.213768115942029</v>
       </c>
       <c r="C61">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D61">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3493,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>112</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3501,25 +3522,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1993670886075949</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="C62">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D62">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>253</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3527,13 +3548,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.19</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C63">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3545,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>162</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3553,25 +3574,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.188034188034188</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C64">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D64">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E64">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>95</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3579,7 +3600,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1855670103092784</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="C65">
         <v>18</v>
@@ -3597,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3605,25 +3626,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1800595238095238</v>
+        <v>0.1931649331352155</v>
       </c>
       <c r="C66">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D66">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E66">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F66">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3631,13 +3652,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1775700934579439</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C67">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D67">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3649,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>176</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3657,13 +3678,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1719745222929936</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3675,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>130</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3683,13 +3704,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1695402298850575</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C69">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D69">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3701,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>289</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3709,25 +3730,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1574803149606299</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="C70">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E70">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F70">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3735,25 +3756,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1558441558441558</v>
+        <v>0.1786743515850144</v>
       </c>
       <c r="C71">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>130</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3761,13 +3782,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1542857142857143</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C72">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D72">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3779,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>148</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3787,13 +3808,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1518324607329843</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C73">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D73">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3805,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3813,25 +3834,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1443850267379679</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D74">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E74">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F74">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3839,13 +3860,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1387665198237885</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="C75">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D75">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3857,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>391</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3865,13 +3886,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1209677419354839</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D76">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3883,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3891,25 +3912,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1178707224334601</v>
+        <v>0.1411290322580645</v>
       </c>
       <c r="C77">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D77">
         <v>35</v>
       </c>
       <c r="E77">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3917,13 +3938,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1148648648648649</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D78">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3935,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>131</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3943,13 +3964,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1145833333333333</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="C79">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3961,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3969,13 +3990,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1145038167938931</v>
+        <v>0.125</v>
       </c>
       <c r="C80">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D80">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3987,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>116</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3995,13 +4016,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1092896174863388</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4013,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>163</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4021,13 +4042,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1028571428571429</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="C82">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D82">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4039,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4047,25 +4068,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.09619686800894854</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C83">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D83">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>404</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4073,25 +4094,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0958904109589041</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="C84">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D84">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>330</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4099,25 +4120,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.08757062146892655</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="C85">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E85">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>323</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4125,25 +4146,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.08290155440414508</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C86">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D86">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E86">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4151,25 +4172,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.07781456953642384</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="C87">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D87">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E87">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F87">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>557</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4177,25 +4198,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0761904761904762</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="C88">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D88">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E88">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F88">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>291</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4203,25 +4224,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07553956834532374</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="C89">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D89">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E89">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="F89">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>257</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4229,25 +4250,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07294117647058823</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C90">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D90">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E90">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>394</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4255,25 +4276,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.05776636713735558</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C91">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D91">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E91">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="F91">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>734</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4281,25 +4302,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05633802816901409</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="C92">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D92">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>402</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4307,25 +4328,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05521472392638037</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C93">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D93">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E93">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="F93">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>616</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4333,25 +4354,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.04597701149425287</v>
+        <v>0.09131403118040089</v>
       </c>
       <c r="C94">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D94">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E94">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>332</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4359,25 +4380,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.04157043879907621</v>
+        <v>0.08745874587458746</v>
       </c>
       <c r="C95">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D95">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E95">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="F95">
-        <v>0.5600000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>415</v>
+        <v>553</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4385,25 +4406,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.03393213572854292</v>
+        <v>0.08470588235294117</v>
       </c>
       <c r="C96">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D96">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E96">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F96">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>484</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4411,25 +4432,181 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.02212389380530973</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="C97">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D97">
+        <v>24</v>
+      </c>
+      <c r="E97">
+        <v>0.08</v>
+      </c>
+      <c r="F97">
+        <v>0.92</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.06645569620253164</v>
+      </c>
+      <c r="C98">
+        <v>21</v>
+      </c>
+      <c r="D98">
+        <v>22</v>
+      </c>
+      <c r="E98">
+        <v>0.05</v>
+      </c>
+      <c r="F98">
+        <v>0.95</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.05538461538461539</v>
+      </c>
+      <c r="C99">
+        <v>36</v>
+      </c>
+      <c r="D99">
+        <v>41</v>
+      </c>
+      <c r="E99">
+        <v>0.12</v>
+      </c>
+      <c r="F99">
+        <v>0.88</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.05512820512820513</v>
+      </c>
+      <c r="C100">
+        <v>43</v>
+      </c>
+      <c r="D100">
+        <v>57</v>
+      </c>
+      <c r="E100">
+        <v>0.25</v>
+      </c>
+      <c r="F100">
+        <v>0.75</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.05164319248826291</v>
+      </c>
+      <c r="C101">
+        <v>22</v>
+      </c>
+      <c r="D101">
+        <v>25</v>
+      </c>
+      <c r="E101">
+        <v>0.12</v>
+      </c>
+      <c r="F101">
+        <v>0.88</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.04843304843304843</v>
+      </c>
+      <c r="C102">
+        <v>17</v>
+      </c>
+      <c r="D102">
+        <v>17</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.03908045977011494</v>
+      </c>
+      <c r="C103">
+        <v>17</v>
+      </c>
+      <c r="D103">
         <v>29</v>
       </c>
-      <c r="E97">
-        <v>0.48</v>
-      </c>
-      <c r="F97">
-        <v>0.52</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>663</v>
+      <c r="E103">
+        <v>0.41</v>
+      </c>
+      <c r="F103">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
